--- a/DB_Exemplo_Permissoes/Tabelas Permissoes.xlsx
+++ b/DB_Exemplo_Permissoes/Tabelas Permissoes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Administradores" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Select</t>
   </si>
@@ -65,20 +65,41 @@
     <t>Mongo</t>
   </si>
   <si>
-    <t>Permitimos acesso a SPs para selects e updates aos limites das culturas? Faria sentido para um caso prático, mas será necessário?</t>
-  </si>
-  <si>
-    <t>Na tabela Investigador, a manutenção de utilizadores (aka Investigadores) será feita ou por Triggers ou SPs. A definir.</t>
-  </si>
-  <si>
     <t>No caso de falhas na ligação (dados mal enviados, ou perda de dados) como recuperar? Buffer?...</t>
+  </si>
+  <si>
+    <t>Investigadores</t>
+  </si>
+  <si>
+    <t>idinv=proprio</t>
+  </si>
+  <si>
+    <t>Terá de ser por SPs/Triggers, para garantir a segurança mencionada no enunciado. O investigador apenas poderá fazer S, I, D e U a medições que apontam para uma cultura do próprio.</t>
+  </si>
+  <si>
+    <t>Visto isto será melhor ter SPs/Triggers de select por tabela, em vez de um select que analisa as table permissions. E.g. sp_select_cultura</t>
+  </si>
+  <si>
+    <t>Na tabela Investigador, a manutenção de utilizadores (aka Investigadores) será feita por Triggers, para criar logins na base de dados</t>
+  </si>
+  <si>
+    <t>a) limites</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>É melhor cada Investigador ter permissão de update ao valor limite das suas culturas, caso contrario, teria de se contactar um administrador para o efeito, não valendo a pena</t>
+  </si>
+  <si>
+    <t>SPs para selects e updates à coluna aos limites da tabela DBA.Culturas. Apenas pode ver as culturas que apontam para o seu idInvestigador correspondente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +121,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +154,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -274,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -291,7 +325,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -316,6 +349,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +648,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,16 +662,16 @@
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="5"/>
@@ -633,10 +682,10 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -645,10 +694,10 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -657,10 +706,10 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -669,10 +718,10 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -681,10 +730,10 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="23"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -693,10 +742,10 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -707,11 +756,11 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -722,33 +771,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="5"/>
@@ -759,10 +809,14 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+      <c r="C3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -771,10 +825,10 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -783,10 +837,10 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -795,10 +849,10 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="15"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -807,10 +861,10 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -819,10 +873,10 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -839,13 +893,36 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="29">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="37">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -858,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -873,16 +950,16 @@
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="5"/>
@@ -893,10 +970,10 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -905,10 +982,10 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -917,10 +994,10 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -929,10 +1006,10 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -941,10 +1018,10 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="7"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -953,10 +1030,10 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -971,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DB_Exemplo_Permissoes/Tabelas Permissoes.xlsx
+++ b/DB_Exemplo_Permissoes/Tabelas Permissoes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Administradores" sheetId="5" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>É melhor cada Investigador ter permissão de update ao valor limite das suas culturas, caso contrario, teria de se contactar um administrador para o efeito, não valendo a pena</t>
   </si>
   <si>
-    <t>SPs para selects e updates à coluna aos limites da tabela DBA.Culturas. Apenas pode ver as culturas que apontam para o seu idInvestigador correspondente</t>
+    <t>SPs/Triggers para selects e updates à coluna aos limites da tabela DBA.Culturas. Apenas pode ver as culturas que apontam para o seu idInvestigador correspondente</t>
   </si>
 </sst>
 </file>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/DB_Exemplo_Permissoes/Tabelas Permissoes.xlsx
+++ b/DB_Exemplo_Permissoes/Tabelas Permissoes.xlsx
@@ -71,15 +71,6 @@
     <t>Investigadores</t>
   </si>
   <si>
-    <t>idinv=proprio</t>
-  </si>
-  <si>
-    <t>Terá de ser por SPs/Triggers, para garantir a segurança mencionada no enunciado. O investigador apenas poderá fazer S, I, D e U a medições que apontam para uma cultura do próprio.</t>
-  </si>
-  <si>
-    <t>Visto isto será melhor ter SPs/Triggers de select por tabela, em vez de um select que analisa as table permissions. E.g. sp_select_cultura</t>
-  </si>
-  <si>
     <t>Na tabela Investigador, a manutenção de utilizadores (aka Investigadores) será feita por Triggers, para criar logins na base de dados</t>
   </si>
   <si>
@@ -92,7 +83,16 @@
     <t>É melhor cada Investigador ter permissão de update ao valor limite das suas culturas, caso contrario, teria de se contactar um administrador para o efeito, não valendo a pena</t>
   </si>
   <si>
-    <t>SPs/Triggers para selects e updates à coluna aos limites da tabela DBA.Culturas. Apenas pode ver as culturas que apontam para o seu idInvestigador correspondente</t>
+    <t>email=proprio</t>
+  </si>
+  <si>
+    <t>Terá de ser por Triggers, para garantir a segurança mencionada no enunciado. O investigador apenas poderá fazer S, I, D e U a medições que apontam para uma cultura do próprio.</t>
+  </si>
+  <si>
+    <t>Triggers para selects e updates à coluna aos limites da tabela DBA.Culturas. Apenas pode ver as culturas que apontam para o seu idInvestigador correspondente</t>
+  </si>
+  <si>
+    <t>Selects serão feitos por views, não tendo permissão direta de select à tabela, mas sim a um view que possibilita o select restritivo, mostrando apenas as entradas relevantes a esse investigador.</t>
   </si>
 </sst>
 </file>
@@ -129,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,18 +359,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +780,7 @@
   <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,13 +815,13 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>16</v>
+      <c r="C3" s="37" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -837,7 +843,7 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="22"/>
@@ -849,10 +855,10 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -900,29 +906,31 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="35">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="39">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="37">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
-        <v>21</v>
-      </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DB_Exemplo_Permissoes/Tabelas Permissoes.xlsx
+++ b/DB_Exemplo_Permissoes/Tabelas Permissoes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Administradores" sheetId="5" r:id="rId1"/>
@@ -274,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -316,6 +316,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,18 +600,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -629,7 +631,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -641,7 +643,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -653,19 +655,19 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="13"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -677,7 +679,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -689,7 +691,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -701,12 +703,12 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="30">
         <v>1</v>
       </c>
@@ -724,18 +726,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
@@ -755,7 +757,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -767,7 +769,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -779,19 +781,19 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -803,7 +805,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -815,7 +817,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -827,12 +829,12 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -840,7 +842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2</v>
       </c>
@@ -862,14 +864,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
@@ -889,7 +891,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,7 +903,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -913,7 +915,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -925,7 +927,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -937,7 +939,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -949,7 +951,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -961,12 +963,12 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
